--- a/biology/Zoologie/Cephalotes_oculatus/Cephalotes_oculatus.xlsx
+++ b/biology/Zoologie/Cephalotes_oculatus/Cephalotes_oculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes oculatus, est une espèce de fourmis arboricoles du genre Cephalotes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes oculatus, est une espèce de fourmis arboricoles du genre Cephalotes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique dans toute la partie centrale de l'Amérique du Sud du Pérou à l'Ouest, jusqu'à l'État de Bahia à l'Est[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique dans toute la partie centrale de l'Amérique du Sud du Pérou à l'Ouest, jusqu'à l'État de Bahia à l'Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversity and Adaptation in the Ant Genus Cephalotes Past and Present (Hymenoptera, Formicidae)
 </t>
